--- a/data.xlsx
+++ b/data.xlsx
@@ -958,7 +958,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
